--- a/Config2.xlsx
+++ b/Config2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspaces\Github\ANCAT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4F85C8-7D66-4831-80D9-FB52FF9B171B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F85A25A-068F-47C2-87ED-EACB43E88905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{60116E78-B1B7-4F11-A25A-D1AE9DCDD0BC}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="80">
   <si>
     <t>ES1</t>
   </si>
@@ -269,9 +269,6 @@
     <t>BAG</t>
   </si>
   <si>
-    <t xml:space="preserve"> (B)</t>
-  </si>
-  <si>
     <t xml:space="preserve">rho </t>
   </si>
   <si>
@@ -321,6 +318,12 @@
   </si>
   <si>
     <t>uniform(0s, 0.0005s)</t>
+  </si>
+  <si>
+    <t>0.8+uniform(0,0.4ms)</t>
+  </si>
+  <si>
+    <t>1183+uniform(0,20)</t>
   </si>
 </sst>
 </file>
@@ -408,7 +411,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -444,6 +447,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -787,7 +793,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
@@ -802,7 +808,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
@@ -873,7 +879,7 @@
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1020,20 +1026,22 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F4"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.21875" style="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.44140625" style="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.88671875" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.77734375" style="12" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.6640625" style="12" customWidth="1"/>
-    <col min="11" max="12" width="13.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="12" customWidth="1"/>
+    <col min="10" max="10" width="10.44140625" style="12" customWidth="1"/>
+    <col min="11" max="11" width="7.77734375" style="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5546875" style="12" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.109375" style="12" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6" style="12" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="8.88671875" style="12"/>
@@ -1041,7 +1049,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>35</v>
@@ -1065,22 +1073,22 @@
         <v>60</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="L1" s="4" t="s">
-        <v>70</v>
-      </c>
       <c r="M1" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -1091,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>30</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>22</v>
@@ -1135,16 +1143,16 @@
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>31</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>22</v>
@@ -1179,16 +1187,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>32</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>22</v>
@@ -1223,10 +1231,10 @@
         <v>0</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E5" s="14" t="s">
         <v>33</v>
@@ -1241,16 +1249,16 @@
         <v>24</v>
       </c>
       <c r="I5" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" s="14" t="s">
         <v>67</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>68</v>
       </c>
       <c r="K5" s="14">
         <v>1183</v>
       </c>
       <c r="L5" s="14">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M5" s="14" t="s">
         <v>18</v>
@@ -1303,20 +1311,26 @@
       <c r="H11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="K11" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="L11" s="11" t="s">
-        <v>61</v>
-      </c>
+      <c r="I11" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="L11" s="16"/>
       <c r="M11" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N11" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Config2.xlsx
+++ b/Config2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspaces\Github\ANCAT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F85A25A-068F-47C2-87ED-EACB43E88905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC8D309-F8A7-476E-A682-5CD5C0362760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{60116E78-B1B7-4F11-A25A-D1AE9DCDD0BC}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Instructions" sheetId="2" r:id="rId1"/>
     <sheet name="Topology" sheetId="1" r:id="rId2"/>
     <sheet name="Settings" sheetId="3" r:id="rId3"/>
-    <sheet name="End Systems" sheetId="6" r:id="rId4"/>
+    <sheet name="Message Set" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="67">
   <si>
     <t>ES1</t>
   </si>
@@ -56,12 +55,6 @@
   </si>
   <si>
     <t>Define Switches with SWx, x: 0..n</t>
-  </si>
-  <si>
-    <t>Entry</t>
-  </si>
-  <si>
-    <t>Exit</t>
   </si>
   <si>
     <t xml:space="preserve">! Her bağlantı bir kere </t>
@@ -152,9 +145,6 @@
     <t>10ms</t>
   </si>
   <si>
-    <t>1s</t>
-  </si>
-  <si>
     <t>0s</t>
   </si>
   <si>
@@ -176,36 +166,6 @@
     <t>uniform içi format kontrolü</t>
   </si>
   <si>
-    <t>0x100</t>
-  </si>
-  <si>
-    <t>0x101</t>
-  </si>
-  <si>
-    <t>0x102</t>
-  </si>
-  <si>
-    <t>0x200</t>
-  </si>
-  <si>
-    <t>0: Dont Care</t>
-  </si>
-  <si>
-    <t>Source ID</t>
-  </si>
-  <si>
-    <t>ESx, x: 0..n</t>
-  </si>
-  <si>
-    <t>0..y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Used to calculate propagation delay. </t>
-  </si>
-  <si>
-    <t>Used to demonstrate a realistic data source from another communication channel</t>
-  </si>
-  <si>
     <t>ms, s, us açıklama</t>
   </si>
   <si>
@@ -242,27 +202,15 @@
     <t>Datarate of source</t>
   </si>
   <si>
-    <t>between source and ES</t>
-  </si>
-  <si>
     <t>Cable length</t>
   </si>
   <si>
-    <t>between source and ES[m]</t>
-  </si>
-  <si>
     <t>VLID</t>
   </si>
   <si>
-    <t>[hex]</t>
-  </si>
-  <si>
     <t>startTime</t>
   </si>
   <si>
-    <t>[us, ms, s]</t>
-  </si>
-  <si>
     <t>stopTime</t>
   </si>
   <si>
@@ -272,24 +220,12 @@
     <t xml:space="preserve">rho </t>
   </si>
   <si>
-    <t>[bps, Mbps]</t>
-  </si>
-  <si>
     <t>sigma</t>
   </si>
   <si>
-    <t>(b)</t>
-  </si>
-  <si>
     <t>Period</t>
   </si>
   <si>
-    <t>0.8ms</t>
-  </si>
-  <si>
-    <t>0.4ms</t>
-  </si>
-  <si>
     <t>Payload Length</t>
   </si>
   <si>
@@ -299,31 +235,55 @@
     <t>Delta Period</t>
   </si>
   <si>
-    <t>End System</t>
-  </si>
-  <si>
     <t>Define End Systems with ESx, x: 0..n (Es's shall be named without skipping any number: ES0, ES1, ES2..)</t>
   </si>
   <si>
     <t>For receiving only end systems, no need to add a row</t>
   </si>
   <si>
+    <t>0x1</t>
+  </si>
+  <si>
     <t>0m</t>
   </si>
   <si>
-    <t>0bps</t>
-  </si>
-  <si>
-    <t>Değer aralıkları (vlis:  16 bit ? gibi)</t>
-  </si>
-  <si>
-    <t>uniform(0s, 0.0005s)</t>
-  </si>
-  <si>
-    <t>0.8+uniform(0,0.4ms)</t>
-  </si>
-  <si>
-    <t>1183+uniform(0,20)</t>
+    <t>source ıd bir kaynaktan birkaç farklı vlid göndermek için</t>
+  </si>
+  <si>
+    <t>partition ID</t>
+  </si>
+  <si>
+    <t>Destination ES</t>
+  </si>
+  <si>
+    <t>Source ES</t>
+  </si>
+  <si>
+    <t>source ve destination isimleri ES1,ES2 şeklinde olcak. Sadece virgül, var boşluk yok</t>
+  </si>
+  <si>
+    <t>End1</t>
+  </si>
+  <si>
+    <t>End2</t>
+  </si>
+  <si>
+    <t>aciklamalar</t>
+  </si>
+  <si>
+    <t>0x2</t>
+  </si>
+  <si>
+    <t>0x3</t>
+  </si>
+  <si>
+    <t>0x4</t>
+  </si>
+  <si>
+    <t>3ms</t>
+  </si>
+  <si>
+    <t>10s</t>
   </si>
 </sst>
 </file>
@@ -411,14 +371,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -439,17 +395,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -765,7 +732,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BF69AB4-52F8-472A-9D5A-F167AD55A233}">
-  <dimension ref="A1:A23"/>
+  <dimension ref="A1:A24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
@@ -773,27 +740,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="85.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="85.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
@@ -802,84 +769,89 @@
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>27</v>
+      <c r="A7" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>28</v>
+      <c r="A9" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
+      <c r="A10" s="2"/>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
+      <c r="A11" s="2"/>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>76</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -890,45 +862,125 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{599FF63A-B559-42D2-99F2-9F8D52FECC3F}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="5.88671875" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="8.88671875" style="12"/>
+    <col min="8" max="8" width="10.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3" style="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="12"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="12" t="s">
         <v>1</v>
       </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -942,76 +994,76 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>50</v>
+      <c r="A1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="9" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="9" t="s">
+      <c r="B5" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="9" t="s">
+      <c r="B6" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="9">
+      <c r="A8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="7">
         <v>1000</v>
       </c>
     </row>
@@ -1023,316 +1075,298 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{570773CE-9739-4C1A-9F1C-7A7BF1E7D7C1}">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.21875" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.88671875" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.77734375" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" style="12" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" style="12" customWidth="1"/>
-    <col min="11" max="11" width="7.77734375" style="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6" style="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="12"/>
+    <col min="1" max="1" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.77734375" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="4" t="s">
+    <row r="1" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="17">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0</v>
+      </c>
+      <c r="J2" s="3">
+        <v>1183</v>
+      </c>
+      <c r="K2" s="3">
+        <v>0</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="3">
+        <v>15000</v>
+      </c>
+      <c r="N2" s="3">
+        <v>0</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I1" s="4" t="s">
+    </row>
+    <row r="3" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="17">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="M1" s="4" t="s">
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3">
+        <v>1183</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="3">
+        <v>15000</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="17">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3">
+        <v>1183</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="3">
+        <v>15000</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="17">
+        <v>3</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1183</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="3">
+        <v>15000</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B6" s="12"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B7" s="12"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B8" s="12"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B9" s="12"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B10" s="12"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="N1" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="14">
-        <v>0</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="13">
-        <v>0</v>
-      </c>
-      <c r="K2" s="14">
-        <v>1183</v>
-      </c>
-      <c r="L2" s="13">
-        <v>0</v>
-      </c>
-      <c r="M2" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" s="14">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="14">
-        <v>1</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="13">
-        <v>0</v>
-      </c>
-      <c r="K3" s="14">
-        <v>1183</v>
-      </c>
-      <c r="L3" s="13">
-        <v>0</v>
-      </c>
-      <c r="M3" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="N3" s="14">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="14">
-        <v>2</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="14">
-        <v>0</v>
-      </c>
-      <c r="K4" s="14">
-        <v>1183</v>
-      </c>
-      <c r="L4" s="14">
-        <v>0</v>
-      </c>
-      <c r="M4" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="N4" s="14">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="14">
-        <v>0</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="K5" s="14">
-        <v>1183</v>
-      </c>
-      <c r="L5" s="14">
-        <v>20</v>
-      </c>
-      <c r="M5" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="N5" s="14">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="13"/>
-    </row>
-    <row r="9" spans="1:14" s="10" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C9" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="I11" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="L11" s="16"/>
-      <c r="M11" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="N11" s="11" t="s">
-        <v>64</v>
-      </c>
+    </row>
+    <row r="13" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="15"/>
+    </row>
+    <row r="14" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="16"/>
+    </row>
+    <row r="15" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>